--- a/fat/fat.xlsx
+++ b/fat/fat.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="20340" windowHeight="9450" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="20340" windowHeight="9450" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>FAT</t>
     <phoneticPr fontId="1"/>
@@ -70,6 +71,18 @@
   </si>
   <si>
     <t>5E00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>119C00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FAT2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FAT1</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -778,7 +791,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
@@ -828,8 +841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M16" sqref="A1:M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1007,4 +1020,70 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A3:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>117800</v>
+      </c>
+      <c r="B3">
+        <f>HEX2DEC(A3)</f>
+        <v>1144832</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>273000</v>
+      </c>
+      <c r="B4">
+        <f>HEX2DEC(A4)</f>
+        <v>2568192</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>274000</v>
+      </c>
+      <c r="B5">
+        <f>HEX2DEC(A5)</f>
+        <v>2572288</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <f>HEX2DEC(A6)</f>
+        <v>1154048</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6">
+        <f>B6-B4</f>
+        <v>-1414144</v>
+      </c>
+      <c r="E6">
+        <f>D6/2</f>
+        <v>-707072</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/fat/fat.xlsx
+++ b/fat/fat.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="20340" windowHeight="9450" activeTab="4"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="20340" windowHeight="9450"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="257">
   <si>
     <t>FAT</t>
     <phoneticPr fontId="1"/>
@@ -5694,6 +5694,100 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="32575500"/>
+          <a:ext cx="6915150" cy="4048125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7324725" y="32575500"/>
+          <a:ext cx="6915150" cy="4048125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6215,8 +6309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A192" sqref="A192"/>
+    <sheetView tabSelected="1" topLeftCell="A187" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I216" sqref="I216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6725,10 +6819,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG82"/>
+  <dimension ref="A1:AG83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X71" sqref="X71:Y77"/>
+    <sheetView topLeftCell="A56" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8506,33 +8600,33 @@
         <v>237</v>
       </c>
       <c r="C68" s="35">
-        <f t="shared" ref="C68:C77" si="30">A68/1024</f>
+        <f t="shared" ref="C68:C78" si="30">A68/1024</f>
         <v>0</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>238</v>
       </c>
       <c r="E68" s="36" t="str">
-        <f t="shared" ref="E68:E77" si="31">"C:\Users\DBJ\git\hos\tools\qemu\qemu-img create -f qcow2 C:\Users\DBJ\git\hos\tools\qemu\qemu_img\create\qcow2_"&amp;A68&amp;B68&amp;".qcow2 "&amp;A68</f>
+        <f t="shared" ref="E68:E78" si="31">"C:\Users\DBJ\git\hos\tools\qemu\qemu-img create -f qcow2 C:\Users\DBJ\git\hos\tools\qemu\qemu_img\create\qcow2_"&amp;A68&amp;B68&amp;".qcow2 "&amp;A68</f>
         <v>C:\Users\DBJ\git\hos\tools\qemu\qemu-img create -f qcow2 C:\Users\DBJ\git\hos\tools\qemu\qemu_img\create\qcow2_0K.qcow2 0</v>
       </c>
       <c r="F68" s="36" t="str">
-        <f t="shared" ref="F68:F77" si="32">"C:\Users\DBJ\git\hos\tools\qemu\run.bat qcow2_"&amp;A68&amp;B68&amp;".qcow2 fdisk create"</f>
+        <f t="shared" ref="F68:F78" si="32">"C:\Users\DBJ\git\hos\tools\qemu\run.bat qcow2_"&amp;A68&amp;B68&amp;".qcow2 fdisk create"</f>
         <v>C:\Users\DBJ\git\hos\tools\qemu\run.bat qcow2_0K.qcow2 fdisk create</v>
       </c>
       <c r="G68" s="36" t="str">
-        <f t="shared" ref="G68:G77" si="33">"C:\Users\DBJ\git\hos\tools\qemu\run.bat qcow2_"&amp;A68&amp;B68&amp;".qcow2 format fdisk"</f>
+        <f t="shared" ref="G68:G78" si="33">"C:\Users\DBJ\git\hos\tools\qemu\run.bat qcow2_"&amp;A68&amp;B68&amp;".qcow2 format fdisk"</f>
         <v>C:\Users\DBJ\git\hos\tools\qemu\run.bat qcow2_0K.qcow2 format fdisk</v>
       </c>
       <c r="H68" s="46" t="s">
         <v>240</v>
       </c>
       <c r="I68" s="47">
-        <f t="shared" ref="I68:I77" si="34">A68*1024</f>
+        <f t="shared" ref="I68:I78" si="34">A68*1024</f>
         <v>0</v>
       </c>
       <c r="J68" s="48">
-        <f t="shared" ref="J68:J77" si="35">I68/(1008*512)</f>
+        <f t="shared" ref="J68:J78" si="35">I68/(1008*512)</f>
         <v>0</v>
       </c>
       <c r="K68" s="46">
@@ -8556,7 +8650,7 @@
         <v>-32</v>
       </c>
       <c r="P68" s="48">
-        <f t="shared" ref="P68:P77" si="40">O68/1024</f>
+        <f t="shared" ref="P68:P78" si="40">O68/1024</f>
         <v>-3.125E-2</v>
       </c>
       <c r="Q68" s="46"/>
@@ -8602,7 +8696,7 @@
         <v>0.99801587301587302</v>
       </c>
       <c r="K69" s="46">
-        <f t="shared" ref="K69:K77" si="41">INT(J69)</f>
+        <f t="shared" ref="K69:K78" si="41">INT(J69)</f>
         <v>0</v>
       </c>
       <c r="L69" s="46">
@@ -8676,19 +8770,19 @@
         <v>1</v>
       </c>
       <c r="L70" s="1">
-        <f t="shared" ref="L70:L77" si="42">K70*1008</f>
+        <f t="shared" ref="L70:L78" si="42">K70*1008</f>
         <v>1008</v>
       </c>
       <c r="M70" s="1">
-        <f t="shared" ref="M70:M77" si="43">L70-1</f>
+        <f t="shared" ref="M70:M78" si="43">L70-1</f>
         <v>1007</v>
       </c>
       <c r="N70" s="1">
-        <f t="shared" ref="N70:N77" si="44">M70-63</f>
+        <f t="shared" ref="N70:N78" si="44">M70-63</f>
         <v>944</v>
       </c>
       <c r="O70" s="1">
-        <f t="shared" ref="O70:O77" si="45">N70/2</f>
+        <f t="shared" ref="O70:O78" si="45">N70/2</f>
         <v>472</v>
       </c>
       <c r="P70" s="35">
@@ -8802,7 +8896,7 @@
         <v>10</v>
       </c>
       <c r="U71" s="1">
-        <f t="shared" ref="U71:U77" si="46">N71*512</f>
+        <f t="shared" ref="U71:U78" si="46">N71*512</f>
         <v>15966208</v>
       </c>
       <c r="V71" s="1">
@@ -8814,11 +8908,11 @@
         <v>15.2265625</v>
       </c>
       <c r="X71" s="1">
-        <f t="shared" ref="X71:X77" si="48">U71+512</f>
+        <f t="shared" ref="X71:X78" si="48">U71+512</f>
         <v>15966720</v>
       </c>
       <c r="Y71" s="1">
-        <f t="shared" ref="Y71:Y77" si="49">X71/1048576</f>
+        <f t="shared" ref="Y71:Y78" si="49">X71/1048576</f>
         <v>15.22705078125</v>
       </c>
     </row>
@@ -9199,202 +9293,269 @@
         <v>19.65673828125</v>
       </c>
     </row>
-    <row r="76" spans="1:25" ht="14.25" thickBot="1">
-      <c r="A76" s="38">
+    <row r="76" spans="1:25">
+      <c r="A76" s="1">
+        <v>32255</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C76" s="35">
+        <f t="shared" si="30"/>
+        <v>31.4990234375</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E76" s="36" t="str">
+        <f t="shared" ref="E76" si="59">"C:\Users\DBJ\git\hos\tools\qemu\qemu-img create -f qcow2 C:\Users\DBJ\git\hos\tools\qemu\qemu_img\create\qcow2_"&amp;A76&amp;B76&amp;".qcow2 "&amp;A76</f>
+        <v>C:\Users\DBJ\git\hos\tools\qemu\qemu-img create -f qcow2 C:\Users\DBJ\git\hos\tools\qemu\qemu_img\create\qcow2_32255K.qcow2 32255</v>
+      </c>
+      <c r="F76" s="36" t="str">
+        <f t="shared" ref="F76" si="60">"C:\Users\DBJ\git\hos\tools\qemu\run.bat qcow2_"&amp;A76&amp;B76&amp;".qcow2 fdisk create"</f>
+        <v>C:\Users\DBJ\git\hos\tools\qemu\run.bat qcow2_32255K.qcow2 fdisk create</v>
+      </c>
+      <c r="G76" s="36" t="str">
+        <f t="shared" ref="G76" si="61">"C:\Users\DBJ\git\hos\tools\qemu\run.bat qcow2_"&amp;A76&amp;B76&amp;".qcow2 format fdisk"</f>
+        <v>C:\Users\DBJ\git\hos\tools\qemu\run.bat qcow2_32255K.qcow2 format fdisk</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="I76" s="4">
+        <f t="shared" ref="I76" si="62">A76*1024</f>
+        <v>33029120</v>
+      </c>
+      <c r="J76" s="35">
+        <f t="shared" ref="J76" si="63">I76/(1008*512)</f>
+        <v>63.998015873015873</v>
+      </c>
+      <c r="K76" s="1">
+        <f t="shared" ref="K76" si="64">INT(J76)</f>
+        <v>63</v>
+      </c>
+      <c r="L76" s="1">
+        <f t="shared" ref="L76" si="65">K76*1008</f>
+        <v>63504</v>
+      </c>
+      <c r="M76" s="1">
+        <f t="shared" ref="M76" si="66">L76-1</f>
+        <v>63503</v>
+      </c>
+      <c r="N76" s="1">
+        <f t="shared" ref="N76" si="67">M76-63</f>
+        <v>63440</v>
+      </c>
+      <c r="O76" s="1">
+        <f t="shared" ref="O76" si="68">N76/2</f>
+        <v>31720</v>
+      </c>
+      <c r="P76" s="35">
+        <f t="shared" ref="P76" si="69">O76/1024</f>
+        <v>30.9765625</v>
+      </c>
+      <c r="Q76" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="R76" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="S76" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="T76" s="1"/>
+      <c r="U76" s="1"/>
+      <c r="V76" s="1"/>
+      <c r="W76" s="35"/>
+      <c r="Y76" s="1"/>
+    </row>
+    <row r="77" spans="1:25" ht="14.25" thickBot="1">
+      <c r="A77" s="38">
         <v>524663</v>
       </c>
-      <c r="B76" s="39" t="s">
+      <c r="B77" s="39" t="s">
         <v>237</v>
       </c>
-      <c r="C76" s="40">
+      <c r="C77" s="40">
         <f t="shared" si="30"/>
         <v>512.3662109375</v>
       </c>
-      <c r="D76" s="38" t="s">
+      <c r="D77" s="38" t="s">
         <v>238</v>
       </c>
-      <c r="E76" s="41" t="str">
+      <c r="E77" s="41" t="str">
         <f t="shared" si="31"/>
         <v>C:\Users\DBJ\git\hos\tools\qemu\qemu-img create -f qcow2 C:\Users\DBJ\git\hos\tools\qemu\qemu_img\create\qcow2_524663K.qcow2 524663</v>
       </c>
-      <c r="F76" s="41" t="str">
+      <c r="F77" s="41" t="str">
         <f t="shared" si="32"/>
         <v>C:\Users\DBJ\git\hos\tools\qemu\run.bat qcow2_524663K.qcow2 fdisk create</v>
       </c>
-      <c r="G76" s="41" t="str">
+      <c r="G77" s="41" t="str">
         <f t="shared" si="33"/>
         <v>C:\Users\DBJ\git\hos\tools\qemu\run.bat qcow2_524663K.qcow2 format fdisk</v>
       </c>
-      <c r="H76" s="39" t="s">
+      <c r="H77" s="39" t="s">
         <v>241</v>
       </c>
-      <c r="I76" s="39">
+      <c r="I77" s="39">
         <f t="shared" si="34"/>
         <v>537254912</v>
       </c>
-      <c r="J76" s="40">
+      <c r="J77" s="40">
         <f t="shared" si="35"/>
         <v>1040.9980158730159</v>
       </c>
-      <c r="K76" s="38">
+      <c r="K77" s="38">
         <f t="shared" si="41"/>
         <v>1040</v>
       </c>
-      <c r="L76" s="38">
+      <c r="L77" s="38">
         <f t="shared" si="42"/>
         <v>1048320</v>
       </c>
-      <c r="M76" s="38">
+      <c r="M77" s="38">
         <f t="shared" si="43"/>
         <v>1048319</v>
       </c>
-      <c r="N76" s="38">
+      <c r="N77" s="38">
         <f t="shared" si="44"/>
         <v>1048256</v>
       </c>
-      <c r="O76" s="38">
+      <c r="O77" s="38">
         <f t="shared" si="45"/>
         <v>524128</v>
       </c>
-      <c r="P76" s="40">
+      <c r="P77" s="40">
         <f t="shared" si="40"/>
         <v>511.84375</v>
       </c>
-      <c r="Q76" s="39" t="s">
+      <c r="Q77" s="39" t="s">
         <v>246</v>
       </c>
-      <c r="R76" s="39" t="s">
+      <c r="R77" s="39" t="s">
         <v>249</v>
       </c>
-      <c r="S76" s="39" t="s">
+      <c r="S77" s="39" t="s">
         <v>244</v>
       </c>
-      <c r="T76" s="1">
+      <c r="T77" s="1">
         <v>42</v>
       </c>
-      <c r="U76" s="1">
+      <c r="U77" s="1">
         <f t="shared" si="46"/>
         <v>536707072</v>
       </c>
-      <c r="V76" s="1">
-        <f t="shared" ref="V76:W76" si="59">U76/1024</f>
+      <c r="V77" s="1">
+        <f t="shared" ref="V77:W77" si="70">U77/1024</f>
         <v>524128</v>
       </c>
-      <c r="W76" s="35">
-        <f t="shared" si="59"/>
+      <c r="W77" s="35">
+        <f t="shared" si="70"/>
         <v>511.84375</v>
       </c>
-      <c r="X76" s="1">
+      <c r="X77" s="1">
         <f t="shared" si="48"/>
         <v>536707584</v>
       </c>
-      <c r="Y76" s="1">
+      <c r="Y77" s="1">
         <f t="shared" si="49"/>
         <v>511.84423828125</v>
       </c>
     </row>
-    <row r="77" spans="1:25" ht="14.25" thickTop="1">
-      <c r="A77" s="42">
+    <row r="78" spans="1:25" ht="14.25" thickTop="1">
+      <c r="A78" s="42">
         <v>524664</v>
       </c>
-      <c r="B77" s="43" t="s">
+      <c r="B78" s="43" t="s">
         <v>237</v>
       </c>
-      <c r="C77" s="44">
+      <c r="C78" s="44">
         <f t="shared" si="30"/>
         <v>512.3671875</v>
       </c>
-      <c r="D77" s="42" t="s">
+      <c r="D78" s="42" t="s">
         <v>238</v>
       </c>
-      <c r="E77" s="45" t="str">
+      <c r="E78" s="45" t="str">
         <f t="shared" si="31"/>
         <v>C:\Users\DBJ\git\hos\tools\qemu\qemu-img create -f qcow2 C:\Users\DBJ\git\hos\tools\qemu\qemu_img\create\qcow2_524664K.qcow2 524664</v>
       </c>
-      <c r="F77" s="45" t="str">
+      <c r="F78" s="45" t="str">
         <f t="shared" si="32"/>
         <v>C:\Users\DBJ\git\hos\tools\qemu\run.bat qcow2_524664K.qcow2 fdisk create</v>
       </c>
-      <c r="G77" s="45" t="str">
+      <c r="G78" s="45" t="str">
         <f t="shared" si="33"/>
         <v>C:\Users\DBJ\git\hos\tools\qemu\run.bat qcow2_524664K.qcow2 format fdisk</v>
       </c>
-      <c r="H77" s="43" t="s">
+      <c r="H78" s="43" t="s">
         <v>241</v>
       </c>
-      <c r="I77" s="43">
+      <c r="I78" s="43">
         <f t="shared" si="34"/>
         <v>537255936</v>
       </c>
-      <c r="J77" s="44">
+      <c r="J78" s="44">
         <f t="shared" si="35"/>
         <v>1041</v>
       </c>
-      <c r="K77" s="42">
+      <c r="K78" s="42">
         <f t="shared" si="41"/>
         <v>1041</v>
       </c>
-      <c r="L77" s="42">
+      <c r="L78" s="42">
         <f t="shared" si="42"/>
         <v>1049328</v>
       </c>
-      <c r="M77" s="42">
+      <c r="M78" s="42">
         <f t="shared" si="43"/>
         <v>1049327</v>
       </c>
-      <c r="N77" s="42">
+      <c r="N78" s="42">
         <f t="shared" si="44"/>
         <v>1049264</v>
       </c>
-      <c r="O77" s="42">
+      <c r="O78" s="42">
         <f t="shared" si="45"/>
         <v>524632</v>
       </c>
-      <c r="P77" s="44">
+      <c r="P78" s="44">
         <f t="shared" si="40"/>
         <v>512.3359375</v>
       </c>
-      <c r="Q77" s="43" t="s">
+      <c r="Q78" s="43" t="s">
         <v>251</v>
       </c>
-      <c r="R77" s="43" t="s">
+      <c r="R78" s="43" t="s">
         <v>250</v>
       </c>
-      <c r="S77" s="43" t="s">
+      <c r="S78" s="43" t="s">
         <v>244</v>
       </c>
-      <c r="T77" s="1">
+      <c r="T78" s="1">
         <v>10</v>
       </c>
-      <c r="U77" s="1">
+      <c r="U78" s="1">
         <f t="shared" si="46"/>
         <v>537223168</v>
       </c>
-      <c r="V77" s="1">
-        <f t="shared" ref="V77:W77" si="60">U77/1024</f>
+      <c r="V78" s="1">
+        <f t="shared" ref="V78:W78" si="71">U78/1024</f>
         <v>524632</v>
       </c>
-      <c r="W77" s="35">
-        <f t="shared" si="60"/>
+      <c r="W78" s="35">
+        <f t="shared" si="71"/>
         <v>512.3359375</v>
       </c>
-      <c r="X77" s="1">
+      <c r="X78" s="1">
         <f t="shared" si="48"/>
         <v>537223680</v>
       </c>
-      <c r="Y77" s="1">
+      <c r="Y78" s="1">
         <f t="shared" si="49"/>
         <v>512.33642578125</v>
       </c>
-    </row>
-    <row r="78" spans="1:25" s="1" customFormat="1">
-      <c r="C78" s="35"/>
-      <c r="E78" s="36"/>
-      <c r="F78" s="36"/>
-      <c r="G78" s="36"/>
-      <c r="I78" s="4"/>
-      <c r="J78" s="35"/>
-      <c r="P78" s="35"/>
     </row>
     <row r="79" spans="1:25" s="1" customFormat="1">
       <c r="C79" s="35"/>
@@ -9431,6 +9592,15 @@
       <c r="I82" s="4"/>
       <c r="J82" s="35"/>
       <c r="P82" s="35"/>
+    </row>
+    <row r="83" spans="3:16" s="1" customFormat="1">
+      <c r="C83" s="35"/>
+      <c r="E83" s="36"/>
+      <c r="F83" s="36"/>
+      <c r="G83" s="36"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="35"/>
+      <c r="P83" s="35"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/fat/fat.xlsx
+++ b/fat/fat.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="20340" windowHeight="9450"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="20340" windowHeight="9450" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="259">
   <si>
     <t>FAT</t>
     <phoneticPr fontId="1"/>
@@ -4696,6 +4696,14 @@
   </si>
   <si>
     <t>K</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2047.46</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FAT32</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5788,6 +5796,100 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>238</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="36861750"/>
+          <a:ext cx="6915150" cy="4048125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>238</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7324725" y="36861750"/>
+          <a:ext cx="6915150" cy="4048125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6309,8 +6411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I216" sqref="I216"/>
+    <sheetView topLeftCell="A214" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J245" sqref="J245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6522,7 +6624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A55" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -6821,13 +6923,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AG83"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G76" sqref="G76"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q81" sqref="Q81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="7.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.5" style="4" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2.5" style="1" bestFit="1" customWidth="1"/>
@@ -8600,7 +8702,7 @@
         <v>237</v>
       </c>
       <c r="C68" s="35">
-        <f t="shared" ref="C68:C78" si="30">A68/1024</f>
+        <f t="shared" ref="C68:C80" si="30">A68/1024</f>
         <v>0</v>
       </c>
       <c r="D68" s="1" t="s">
@@ -9567,13 +9669,79 @@
       <c r="P79" s="35"/>
     </row>
     <row r="80" spans="1:25" s="1" customFormat="1">
-      <c r="C80" s="35"/>
-      <c r="E80" s="36"/>
-      <c r="F80" s="36"/>
-      <c r="G80" s="36"/>
-      <c r="I80" s="4"/>
-      <c r="J80" s="35"/>
-      <c r="P80" s="35"/>
+      <c r="A80" s="1">
+        <f>2047*1024+512</f>
+        <v>2096640</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C80" s="35">
+        <f t="shared" si="30"/>
+        <v>2047.5</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E80" s="36" t="str">
+        <f t="shared" ref="E80" si="72">"C:\Users\DBJ\git\hos\tools\qemu\qemu-img create -f qcow2 C:\Users\DBJ\git\hos\tools\qemu\qemu_img\create\qcow2_"&amp;A80&amp;B80&amp;".qcow2 "&amp;A80</f>
+        <v>C:\Users\DBJ\git\hos\tools\qemu\qemu-img create -f qcow2 C:\Users\DBJ\git\hos\tools\qemu\qemu_img\create\qcow2_2096640K.qcow2 2096640</v>
+      </c>
+      <c r="F80" s="36" t="str">
+        <f t="shared" ref="F80" si="73">"C:\Users\DBJ\git\hos\tools\qemu\run.bat qcow2_"&amp;A80&amp;B80&amp;".qcow2 fdisk create"</f>
+        <v>C:\Users\DBJ\git\hos\tools\qemu\run.bat qcow2_2096640K.qcow2 fdisk create</v>
+      </c>
+      <c r="G80" s="36" t="str">
+        <f t="shared" ref="G80" si="74">"C:\Users\DBJ\git\hos\tools\qemu\run.bat qcow2_"&amp;A80&amp;B80&amp;".qcow2 format fdisk"</f>
+        <v>C:\Users\DBJ\git\hos\tools\qemu\run.bat qcow2_2096640K.qcow2 format fdisk</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="I80" s="4">
+        <f t="shared" ref="I80" si="75">A80*1024</f>
+        <v>2146959360</v>
+      </c>
+      <c r="J80" s="35">
+        <f t="shared" ref="J80" si="76">I80/(1008*512)</f>
+        <v>4160</v>
+      </c>
+      <c r="K80" s="1">
+        <f t="shared" ref="K80" si="77">INT(J80)</f>
+        <v>4160</v>
+      </c>
+      <c r="L80" s="1">
+        <f t="shared" ref="L80" si="78">K80*1008</f>
+        <v>4193280</v>
+      </c>
+      <c r="M80" s="1">
+        <f t="shared" ref="M80" si="79">L80-1</f>
+        <v>4193279</v>
+      </c>
+      <c r="N80" s="1">
+        <f t="shared" ref="N80" si="80">M80-63</f>
+        <v>4193216</v>
+      </c>
+      <c r="O80" s="1">
+        <f t="shared" ref="O80" si="81">N80/2</f>
+        <v>2096608</v>
+      </c>
+      <c r="P80" s="35">
+        <f t="shared" ref="P80" si="82">O80/1024</f>
+        <v>2047.46875</v>
+      </c>
+      <c r="Q80" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="R80" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="S80" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="T80" s="1">
+        <v>11</v>
+      </c>
     </row>
     <row r="81" spans="3:16" s="1" customFormat="1">
       <c r="C81" s="35"/>

--- a/fat/fat.xlsx
+++ b/fat/fat.xlsx
@@ -4880,7 +4880,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4894,9 +4894,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -5026,6 +5023,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6610,7 +6619,7 @@
       </c>
     </row>
     <row r="36" spans="10:10">
-      <c r="J36" s="37"/>
+      <c r="J36" s="36"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -6923,8 +6932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AG83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q81" sqref="Q81"/>
+    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27:I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7871,17 +7880,17 @@
         <f>I21*512</f>
         <v>516096</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="6">
         <f>J21*K21*L21</f>
         <v>1008</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J21" s="6">
         <v>1</v>
       </c>
-      <c r="K21" s="7">
+      <c r="K21" s="6">
         <v>16</v>
       </c>
-      <c r="L21" s="7">
+      <c r="L21" s="6">
         <v>63</v>
       </c>
     </row>
@@ -7954,13 +7963,13 @@
       </c>
     </row>
     <row r="26" spans="1:33">
-      <c r="J26" s="1" t="s">
+      <c r="J26" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="K26" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="L26" s="1" t="s">
+      <c r="L26" s="48" t="s">
         <v>87</v>
       </c>
       <c r="M26" s="1" t="s">
@@ -7974,28 +7983,28 @@
       <c r="A27" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="H27" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="I27" s="4" t="s">
+      <c r="I27" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J27" s="48">
         <v>0</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K27" s="48">
         <v>0</v>
       </c>
-      <c r="L27" s="1">
+      <c r="L27" s="48">
         <v>1</v>
       </c>
       <c r="M27" s="1">
@@ -8052,36 +8061,36 @@
       </c>
     </row>
     <row r="28" spans="1:33">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="49">
         <f>A28*1024*1024</f>
         <v>2097152</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="48">
         <v>63</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="48">
         <v>3969</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H28" s="48">
         <f>F28+G28-1</f>
         <v>4031</v>
       </c>
-      <c r="I28" s="4">
+      <c r="I28" s="9">
         <f>E28/512</f>
         <v>4096</v>
       </c>
-      <c r="J28" s="1">
+      <c r="J28" s="48">
         <f>INT(F28/($M$27*$N$27))</f>
         <v>0</v>
       </c>
-      <c r="K28" s="1">
+      <c r="K28" s="48">
         <f>MOD(INT(F28/$M$27),$N$27)</f>
         <v>1</v>
       </c>
-      <c r="L28" s="1">
+      <c r="L28" s="48">
         <f>MOD(F28,$M$27)+1</f>
         <v>1</v>
       </c>
@@ -8089,11 +8098,11 @@
         <f>INT(H28/($M$27*$N$27))</f>
         <v>3</v>
       </c>
-      <c r="N28" s="7">
+      <c r="N28" s="6">
         <f>MOD(INT(H28/$M$27),$N$27)</f>
         <v>15</v>
       </c>
-      <c r="O28" s="7">
+      <c r="O28" s="6">
         <f>MOD(H28,$M$27)+1</f>
         <v>63</v>
       </c>
@@ -8151,42 +8160,42 @@
         <f>R28/1024</f>
         <v>1984.5</v>
       </c>
-      <c r="AG28" s="33">
+      <c r="AG28" s="32">
         <f>ROUNDDOWN(AF28/1024,2)</f>
         <v>1.93</v>
       </c>
     </row>
     <row r="29" spans="1:33">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="49">
         <f>A29*1024*1024</f>
         <v>10485760</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="48">
         <v>63</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="48">
         <v>20097</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H29" s="48">
         <f>F29+G29-1</f>
         <v>20159</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I29" s="9">
         <f>E29/512</f>
         <v>20480</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J29" s="48">
         <f t="shared" ref="J29:J32" si="20">INT(F29/($M$27*$N$27))</f>
         <v>0</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K29" s="48">
         <f t="shared" ref="K29:K32" si="21">MOD(INT(F29/$M$27),$N$27)</f>
         <v>1</v>
       </c>
-      <c r="L29" s="1">
+      <c r="L29" s="48">
         <f t="shared" ref="L29:L32" si="22">MOD(F29,$M$27)+1</f>
         <v>1</v>
       </c>
@@ -8194,11 +8203,11 @@
         <f>INT(H29/($M$27*$N$27))</f>
         <v>19</v>
       </c>
-      <c r="N29" s="7">
+      <c r="N29" s="6">
         <f>MOD(INT(H29/$M$27),$N$27)</f>
         <v>15</v>
       </c>
-      <c r="O29" s="7">
+      <c r="O29" s="6">
         <f>MOD(H29,$M$27)+1</f>
         <v>63</v>
       </c>
@@ -8256,42 +8265,42 @@
         <f>R29/1024</f>
         <v>10048.5</v>
       </c>
-      <c r="AG29" s="33">
+      <c r="AG29" s="32">
         <f>ROUNDDOWN(AF29/1024,2)</f>
         <v>9.81</v>
       </c>
     </row>
     <row r="30" spans="1:33">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="49">
         <f>A30*1024*1024</f>
         <v>20971520</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="48">
         <v>63</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="48">
         <v>40257</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H30" s="48">
         <f>F30+G30-1</f>
         <v>40319</v>
       </c>
-      <c r="I30" s="4">
+      <c r="I30" s="9">
         <f>E30/512</f>
         <v>40960</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J30" s="48">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K30" s="48">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="L30" s="1">
+      <c r="L30" s="48">
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
@@ -8299,11 +8308,11 @@
         <f>INT(H30/($M$27*$N$27))</f>
         <v>39</v>
       </c>
-      <c r="N30" s="7">
+      <c r="N30" s="6">
         <f>MOD(INT(H30/$M$27),$N$27)</f>
         <v>15</v>
       </c>
-      <c r="O30" s="7">
+      <c r="O30" s="6">
         <f>MOD(H30,$M$27)+1</f>
         <v>63</v>
       </c>
@@ -8365,23 +8374,23 @@
         <f>R30/1024</f>
         <v>20128.5</v>
       </c>
-      <c r="AG30" s="33">
+      <c r="AG30" s="32">
         <f>ROUNDDOWN(AF30/1024,2)</f>
         <v>19.649999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:33">
-      <c r="A31" s="6"/>
-      <c r="E31" s="6"/>
+      <c r="A31" s="5"/>
+      <c r="E31" s="5"/>
       <c r="H31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
     </row>
     <row r="32" spans="1:33">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="5">
         <f>A32*1024*1024</f>
         <v>629145600</v>
       </c>
@@ -8481,7 +8490,7 @@
         <f>R32/1024</f>
         <v>613840.5</v>
       </c>
-      <c r="AG32" s="33">
+      <c r="AG32" s="32">
         <f>ROUNDDOWN(AF32/1024,2)</f>
         <v>599.45000000000005</v>
       </c>
@@ -8491,7 +8500,7 @@
         <f>2047</f>
         <v>2047</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="5">
         <f>A33*1024*1024</f>
         <v>2146435072</v>
       </c>
@@ -8548,7 +8557,7 @@
         <f>R33/1024</f>
         <v>2096451</v>
       </c>
-      <c r="AG33" s="33">
+      <c r="AG33" s="32">
         <f>ROUNDDOWN(AF33/1024,2)</f>
         <v>2047.31</v>
       </c>
@@ -8653,7 +8662,7 @@
       </c>
     </row>
     <row r="66" spans="1:25">
-      <c r="G66" s="34" t="s">
+      <c r="G66" s="33" t="s">
         <v>231</v>
       </c>
       <c r="H66" s="1" t="s">
@@ -8701,64 +8710,64 @@
       <c r="B68" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C68" s="35">
+      <c r="C68" s="34">
         <f t="shared" ref="C68:C80" si="30">A68/1024</f>
         <v>0</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="E68" s="36" t="str">
+      <c r="E68" s="35" t="str">
         <f t="shared" ref="E68:E78" si="31">"C:\Users\DBJ\git\hos\tools\qemu\qemu-img create -f qcow2 C:\Users\DBJ\git\hos\tools\qemu\qemu_img\create\qcow2_"&amp;A68&amp;B68&amp;".qcow2 "&amp;A68</f>
         <v>C:\Users\DBJ\git\hos\tools\qemu\qemu-img create -f qcow2 C:\Users\DBJ\git\hos\tools\qemu\qemu_img\create\qcow2_0K.qcow2 0</v>
       </c>
-      <c r="F68" s="36" t="str">
+      <c r="F68" s="35" t="str">
         <f t="shared" ref="F68:F78" si="32">"C:\Users\DBJ\git\hos\tools\qemu\run.bat qcow2_"&amp;A68&amp;B68&amp;".qcow2 fdisk create"</f>
         <v>C:\Users\DBJ\git\hos\tools\qemu\run.bat qcow2_0K.qcow2 fdisk create</v>
       </c>
-      <c r="G68" s="36" t="str">
+      <c r="G68" s="35" t="str">
         <f t="shared" ref="G68:G78" si="33">"C:\Users\DBJ\git\hos\tools\qemu\run.bat qcow2_"&amp;A68&amp;B68&amp;".qcow2 format fdisk"</f>
         <v>C:\Users\DBJ\git\hos\tools\qemu\run.bat qcow2_0K.qcow2 format fdisk</v>
       </c>
-      <c r="H68" s="46" t="s">
+      <c r="H68" s="45" t="s">
         <v>240</v>
       </c>
-      <c r="I68" s="47">
+      <c r="I68" s="46">
         <f t="shared" ref="I68:I78" si="34">A68*1024</f>
         <v>0</v>
       </c>
-      <c r="J68" s="48">
+      <c r="J68" s="47">
         <f t="shared" ref="J68:J78" si="35">I68/(1008*512)</f>
         <v>0</v>
       </c>
-      <c r="K68" s="46">
+      <c r="K68" s="45">
         <f>INT(J68)</f>
         <v>0</v>
       </c>
-      <c r="L68" s="46">
+      <c r="L68" s="45">
         <f t="shared" ref="L68:L69" si="36">K68*1008</f>
         <v>0</v>
       </c>
-      <c r="M68" s="46">
+      <c r="M68" s="45">
         <f t="shared" ref="M68:M69" si="37">L68-1</f>
         <v>-1</v>
       </c>
-      <c r="N68" s="46">
+      <c r="N68" s="45">
         <f t="shared" ref="N68:N69" si="38">M68-63</f>
         <v>-64</v>
       </c>
-      <c r="O68" s="46">
+      <c r="O68" s="45">
         <f t="shared" ref="O68:O69" si="39">N68/2</f>
         <v>-32</v>
       </c>
-      <c r="P68" s="48">
+      <c r="P68" s="47">
         <f t="shared" ref="P68:P78" si="40">O68/1024</f>
         <v>-3.125E-2</v>
       </c>
-      <c r="Q68" s="46"/>
-      <c r="R68" s="46"/>
-      <c r="S68" s="46"/>
-      <c r="T68" s="46"/>
+      <c r="Q68" s="45"/>
+      <c r="R68" s="45"/>
+      <c r="S68" s="45"/>
+      <c r="T68" s="45"/>
     </row>
     <row r="69" spans="1:25">
       <c r="A69" s="1">
@@ -8767,64 +8776,64 @@
       <c r="B69" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="C69" s="35">
+      <c r="C69" s="34">
         <f t="shared" si="30"/>
         <v>0.4912109375</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="E69" s="36" t="str">
+      <c r="E69" s="35" t="str">
         <f t="shared" si="31"/>
         <v>C:\Users\DBJ\git\hos\tools\qemu\qemu-img create -f qcow2 C:\Users\DBJ\git\hos\tools\qemu\qemu_img\create\qcow2_503K.qcow2 503</v>
       </c>
-      <c r="F69" s="36" t="str">
+      <c r="F69" s="35" t="str">
         <f t="shared" si="32"/>
         <v>C:\Users\DBJ\git\hos\tools\qemu\run.bat qcow2_503K.qcow2 fdisk create</v>
       </c>
-      <c r="G69" s="36" t="str">
+      <c r="G69" s="35" t="str">
         <f t="shared" si="33"/>
         <v>C:\Users\DBJ\git\hos\tools\qemu\run.bat qcow2_503K.qcow2 format fdisk</v>
       </c>
-      <c r="H69" s="47" t="s">
+      <c r="H69" s="46" t="s">
         <v>240</v>
       </c>
-      <c r="I69" s="47">
+      <c r="I69" s="46">
         <f t="shared" si="34"/>
         <v>515072</v>
       </c>
-      <c r="J69" s="48">
+      <c r="J69" s="47">
         <f t="shared" si="35"/>
         <v>0.99801587301587302</v>
       </c>
-      <c r="K69" s="46">
+      <c r="K69" s="45">
         <f t="shared" ref="K69:K78" si="41">INT(J69)</f>
         <v>0</v>
       </c>
-      <c r="L69" s="46">
+      <c r="L69" s="45">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="M69" s="46">
+      <c r="M69" s="45">
         <f t="shared" si="37"/>
         <v>-1</v>
       </c>
-      <c r="N69" s="46">
+      <c r="N69" s="45">
         <f t="shared" si="38"/>
         <v>-64</v>
       </c>
-      <c r="O69" s="46">
+      <c r="O69" s="45">
         <f t="shared" si="39"/>
         <v>-32</v>
       </c>
-      <c r="P69" s="48">
+      <c r="P69" s="47">
         <f t="shared" si="40"/>
         <v>-3.125E-2</v>
       </c>
-      <c r="Q69" s="47"/>
-      <c r="R69" s="47"/>
-      <c r="S69" s="47"/>
-      <c r="T69" s="47"/>
+      <c r="Q69" s="46"/>
+      <c r="R69" s="46"/>
+      <c r="S69" s="46"/>
+      <c r="T69" s="46"/>
       <c r="V69" s="1">
         <f>1024*1024</f>
         <v>1048576</v>
@@ -8837,22 +8846,22 @@
       <c r="B70" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="C70" s="35">
+      <c r="C70" s="34">
         <f t="shared" si="30"/>
         <v>0.4921875</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="E70" s="36" t="str">
+      <c r="E70" s="35" t="str">
         <f t="shared" si="31"/>
         <v>C:\Users\DBJ\git\hos\tools\qemu\qemu-img create -f qcow2 C:\Users\DBJ\git\hos\tools\qemu\qemu_img\create\qcow2_504K.qcow2 504</v>
       </c>
-      <c r="F70" s="36" t="str">
+      <c r="F70" s="35" t="str">
         <f t="shared" si="32"/>
         <v>C:\Users\DBJ\git\hos\tools\qemu\run.bat qcow2_504K.qcow2 fdisk create</v>
       </c>
-      <c r="G70" s="36" t="str">
+      <c r="G70" s="35" t="str">
         <f t="shared" si="33"/>
         <v>C:\Users\DBJ\git\hos\tools\qemu\run.bat qcow2_504K.qcow2 format fdisk</v>
       </c>
@@ -8863,7 +8872,7 @@
         <f t="shared" si="34"/>
         <v>516096</v>
       </c>
-      <c r="J70" s="35">
+      <c r="J70" s="34">
         <f t="shared" si="35"/>
         <v>1</v>
       </c>
@@ -8887,7 +8896,7 @@
         <f t="shared" ref="O70:O78" si="45">N70/2</f>
         <v>472</v>
       </c>
-      <c r="P70" s="35">
+      <c r="P70" s="34">
         <f t="shared" si="40"/>
         <v>0.4609375</v>
       </c>
@@ -8911,7 +8920,7 @@
         <f>U70/1024</f>
         <v>472</v>
       </c>
-      <c r="W70" s="35">
+      <c r="W70" s="34">
         <f>V70/1024</f>
         <v>0.4609375</v>
       </c>
@@ -8931,22 +8940,22 @@
       <c r="B71" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="C71" s="35">
+      <c r="C71" s="34">
         <f t="shared" si="30"/>
         <v>15.7490234375</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="E71" s="36" t="str">
+      <c r="E71" s="35" t="str">
         <f t="shared" si="31"/>
         <v>C:\Users\DBJ\git\hos\tools\qemu\qemu-img create -f qcow2 C:\Users\DBJ\git\hos\tools\qemu\qemu_img\create\qcow2_16127K.qcow2 16127</v>
       </c>
-      <c r="F71" s="36" t="str">
+      <c r="F71" s="35" t="str">
         <f t="shared" si="32"/>
         <v>C:\Users\DBJ\git\hos\tools\qemu\run.bat qcow2_16127K.qcow2 fdisk create</v>
       </c>
-      <c r="G71" s="36" t="str">
+      <c r="G71" s="35" t="str">
         <f t="shared" si="33"/>
         <v>C:\Users\DBJ\git\hos\tools\qemu\run.bat qcow2_16127K.qcow2 format fdisk</v>
       </c>
@@ -8957,7 +8966,7 @@
         <f t="shared" si="34"/>
         <v>16514048</v>
       </c>
-      <c r="J71" s="35">
+      <c r="J71" s="34">
         <f t="shared" si="35"/>
         <v>31.998015873015873</v>
       </c>
@@ -8981,7 +8990,7 @@
         <f t="shared" si="45"/>
         <v>15592</v>
       </c>
-      <c r="P71" s="35">
+      <c r="P71" s="34">
         <f t="shared" si="40"/>
         <v>15.2265625</v>
       </c>
@@ -9005,7 +9014,7 @@
         <f t="shared" ref="V71:W71" si="47">U71/1024</f>
         <v>15592</v>
       </c>
-      <c r="W71" s="35">
+      <c r="W71" s="34">
         <f t="shared" si="47"/>
         <v>15.2265625</v>
       </c>
@@ -9026,22 +9035,22 @@
       <c r="B72" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="C72" s="35">
+      <c r="C72" s="34">
         <f t="shared" si="30"/>
         <v>15.75</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="E72" s="36" t="str">
+      <c r="E72" s="35" t="str">
         <f t="shared" si="31"/>
         <v>C:\Users\DBJ\git\hos\tools\qemu\qemu-img create -f qcow2 C:\Users\DBJ\git\hos\tools\qemu\qemu_img\create\qcow2_16128K.qcow2 16128</v>
       </c>
-      <c r="F72" s="36" t="str">
+      <c r="F72" s="35" t="str">
         <f t="shared" si="32"/>
         <v>C:\Users\DBJ\git\hos\tools\qemu\run.bat qcow2_16128K.qcow2 fdisk create</v>
       </c>
-      <c r="G72" s="36" t="str">
+      <c r="G72" s="35" t="str">
         <f t="shared" si="33"/>
         <v>C:\Users\DBJ\git\hos\tools\qemu\run.bat qcow2_16128K.qcow2 format fdisk</v>
       </c>
@@ -9052,7 +9061,7 @@
         <f t="shared" si="34"/>
         <v>16515072</v>
       </c>
-      <c r="J72" s="35">
+      <c r="J72" s="34">
         <f t="shared" si="35"/>
         <v>32</v>
       </c>
@@ -9076,7 +9085,7 @@
         <f t="shared" si="45"/>
         <v>16096</v>
       </c>
-      <c r="P72" s="35">
+      <c r="P72" s="34">
         <f t="shared" si="40"/>
         <v>15.71875</v>
       </c>
@@ -9100,7 +9109,7 @@
         <f t="shared" ref="V72:W72" si="50">U72/1024</f>
         <v>16096</v>
       </c>
-      <c r="W72" s="35">
+      <c r="W72" s="34">
         <f t="shared" si="50"/>
         <v>15.71875</v>
       </c>
@@ -9114,73 +9123,73 @@
       </c>
     </row>
     <row r="73" spans="1:25" ht="14.25" thickBot="1">
-      <c r="A73" s="38">
+      <c r="A73" s="37">
         <v>16631</v>
       </c>
-      <c r="B73" s="39" t="s">
+      <c r="B73" s="38" t="s">
         <v>237</v>
       </c>
-      <c r="C73" s="40">
+      <c r="C73" s="39">
         <f t="shared" si="30"/>
         <v>16.2412109375</v>
       </c>
-      <c r="D73" s="38" t="s">
+      <c r="D73" s="37" t="s">
         <v>238</v>
       </c>
-      <c r="E73" s="41" t="str">
+      <c r="E73" s="40" t="str">
         <f t="shared" si="31"/>
         <v>C:\Users\DBJ\git\hos\tools\qemu\qemu-img create -f qcow2 C:\Users\DBJ\git\hos\tools\qemu\qemu_img\create\qcow2_16631K.qcow2 16631</v>
       </c>
-      <c r="F73" s="41" t="str">
+      <c r="F73" s="40" t="str">
         <f t="shared" si="32"/>
         <v>C:\Users\DBJ\git\hos\tools\qemu\run.bat qcow2_16631K.qcow2 fdisk create</v>
       </c>
-      <c r="G73" s="41" t="str">
+      <c r="G73" s="40" t="str">
         <f t="shared" si="33"/>
         <v>C:\Users\DBJ\git\hos\tools\qemu\run.bat qcow2_16631K.qcow2 format fdisk</v>
       </c>
-      <c r="H73" s="39" t="s">
+      <c r="H73" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="I73" s="39">
+      <c r="I73" s="38">
         <f t="shared" si="34"/>
         <v>17030144</v>
       </c>
-      <c r="J73" s="40">
+      <c r="J73" s="39">
         <f t="shared" si="35"/>
         <v>32.998015873015873</v>
       </c>
-      <c r="K73" s="38">
+      <c r="K73" s="37">
         <f t="shared" si="41"/>
         <v>32</v>
       </c>
-      <c r="L73" s="38">
+      <c r="L73" s="37">
         <f t="shared" si="42"/>
         <v>32256</v>
       </c>
-      <c r="M73" s="38">
+      <c r="M73" s="37">
         <f t="shared" si="43"/>
         <v>32255</v>
       </c>
-      <c r="N73" s="38">
+      <c r="N73" s="37">
         <f t="shared" si="44"/>
         <v>32192</v>
       </c>
-      <c r="O73" s="38">
+      <c r="O73" s="37">
         <f t="shared" si="45"/>
         <v>16096</v>
       </c>
-      <c r="P73" s="40">
+      <c r="P73" s="39">
         <f t="shared" si="40"/>
         <v>15.71875</v>
       </c>
-      <c r="Q73" s="39" t="s">
+      <c r="Q73" s="38" t="s">
         <v>242</v>
       </c>
-      <c r="R73" s="39" t="s">
+      <c r="R73" s="38" t="s">
         <v>245</v>
       </c>
-      <c r="S73" s="39" t="s">
+      <c r="S73" s="38" t="s">
         <v>244</v>
       </c>
       <c r="T73" s="1">
@@ -9194,7 +9203,7 @@
         <f t="shared" ref="V73:W73" si="51">U73/1024</f>
         <v>16096</v>
       </c>
-      <c r="W73" s="35">
+      <c r="W73" s="34">
         <f t="shared" si="51"/>
         <v>15.71875</v>
       </c>
@@ -9208,73 +9217,73 @@
       </c>
     </row>
     <row r="74" spans="1:25" ht="14.25" thickTop="1">
-      <c r="A74" s="42">
+      <c r="A74" s="41">
         <v>16632</v>
       </c>
-      <c r="B74" s="43" t="s">
+      <c r="B74" s="42" t="s">
         <v>237</v>
       </c>
-      <c r="C74" s="44">
+      <c r="C74" s="43">
         <f t="shared" si="30"/>
         <v>16.2421875</v>
       </c>
-      <c r="D74" s="42" t="s">
+      <c r="D74" s="41" t="s">
         <v>238</v>
       </c>
-      <c r="E74" s="45" t="str">
+      <c r="E74" s="44" t="str">
         <f t="shared" si="31"/>
         <v>C:\Users\DBJ\git\hos\tools\qemu\qemu-img create -f qcow2 C:\Users\DBJ\git\hos\tools\qemu\qemu_img\create\qcow2_16632K.qcow2 16632</v>
       </c>
-      <c r="F74" s="45" t="str">
+      <c r="F74" s="44" t="str">
         <f t="shared" si="32"/>
         <v>C:\Users\DBJ\git\hos\tools\qemu\run.bat qcow2_16632K.qcow2 fdisk create</v>
       </c>
-      <c r="G74" s="45" t="str">
+      <c r="G74" s="44" t="str">
         <f t="shared" si="33"/>
         <v>C:\Users\DBJ\git\hos\tools\qemu\run.bat qcow2_16632K.qcow2 format fdisk</v>
       </c>
-      <c r="H74" s="43" t="s">
+      <c r="H74" s="42" t="s">
         <v>241</v>
       </c>
-      <c r="I74" s="43">
+      <c r="I74" s="42">
         <f t="shared" si="34"/>
         <v>17031168</v>
       </c>
-      <c r="J74" s="44">
+      <c r="J74" s="43">
         <f t="shared" si="35"/>
         <v>33</v>
       </c>
-      <c r="K74" s="42">
+      <c r="K74" s="41">
         <f t="shared" si="41"/>
         <v>33</v>
       </c>
-      <c r="L74" s="42">
+      <c r="L74" s="41">
         <f t="shared" si="42"/>
         <v>33264</v>
       </c>
-      <c r="M74" s="42">
+      <c r="M74" s="41">
         <f t="shared" si="43"/>
         <v>33263</v>
       </c>
-      <c r="N74" s="42">
+      <c r="N74" s="41">
         <f t="shared" si="44"/>
         <v>33200</v>
       </c>
-      <c r="O74" s="42">
+      <c r="O74" s="41">
         <f t="shared" si="45"/>
         <v>16600</v>
       </c>
-      <c r="P74" s="44">
+      <c r="P74" s="43">
         <f t="shared" si="40"/>
         <v>16.2109375</v>
       </c>
-      <c r="Q74" s="43" t="s">
+      <c r="Q74" s="42" t="s">
         <v>246</v>
       </c>
-      <c r="R74" s="43" t="s">
+      <c r="R74" s="42" t="s">
         <v>247</v>
       </c>
-      <c r="S74" s="43" t="s">
+      <c r="S74" s="42" t="s">
         <v>244</v>
       </c>
       <c r="T74" s="1">
@@ -9288,7 +9297,7 @@
         <f t="shared" ref="V74:W74" si="52">U74/1024</f>
         <v>16600</v>
       </c>
-      <c r="W74" s="35">
+      <c r="W74" s="34">
         <f t="shared" si="52"/>
         <v>16.2109375</v>
       </c>
@@ -9309,21 +9318,21 @@
       <c r="B75" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="C75" s="35">
+      <c r="C75" s="34">
         <v>20</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E75" s="36" t="str">
+      <c r="E75" s="35" t="str">
         <f t="shared" ref="E75" si="53">"C:\Users\DBJ\git\hos\tools\qemu\qemu-img create -f qcow2 C:\Users\DBJ\git\hos\tools\qemu\qemu_img\create\qcow2_"&amp;A75&amp;B75&amp;".qcow2 "&amp;A75</f>
         <v>C:\Users\DBJ\git\hos\tools\qemu\qemu-img create -f qcow2 C:\Users\DBJ\git\hos\tools\qemu\qemu_img\create\qcow2_20480K.qcow2 20480</v>
       </c>
-      <c r="F75" s="36" t="str">
+      <c r="F75" s="35" t="str">
         <f t="shared" ref="F75" si="54">"C:\Users\DBJ\git\hos\tools\qemu\run.bat qcow2_"&amp;A75&amp;B75&amp;".qcow2 fdisk create"</f>
         <v>C:\Users\DBJ\git\hos\tools\qemu\run.bat qcow2_20480K.qcow2 fdisk create</v>
       </c>
-      <c r="G75" s="36" t="str">
+      <c r="G75" s="35" t="str">
         <f t="shared" ref="G75" si="55">"C:\Users\DBJ\git\hos\tools\qemu\run.bat qcow2_"&amp;A75&amp;B75&amp;".qcow2 format fdisk"</f>
         <v>C:\Users\DBJ\git\hos\tools\qemu\run.bat qcow2_20480K.qcow2 format fdisk</v>
       </c>
@@ -9334,7 +9343,7 @@
         <f t="shared" ref="I75" si="56">A75*1024</f>
         <v>20971520</v>
       </c>
-      <c r="J75" s="35">
+      <c r="J75" s="34">
         <f t="shared" si="35"/>
         <v>40.634920634920633</v>
       </c>
@@ -9358,7 +9367,7 @@
         <f t="shared" si="45"/>
         <v>20128</v>
       </c>
-      <c r="P75" s="35">
+      <c r="P75" s="34">
         <f t="shared" si="40"/>
         <v>19.65625</v>
       </c>
@@ -9382,7 +9391,7 @@
         <f t="shared" ref="V75:W75" si="58">U75/1024</f>
         <v>20128</v>
       </c>
-      <c r="W75" s="35">
+      <c r="W75" s="34">
         <f t="shared" si="58"/>
         <v>19.65625</v>
       </c>
@@ -9402,22 +9411,22 @@
       <c r="B76" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="C76" s="35">
+      <c r="C76" s="34">
         <f t="shared" si="30"/>
         <v>31.4990234375</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E76" s="36" t="str">
+      <c r="E76" s="35" t="str">
         <f t="shared" ref="E76" si="59">"C:\Users\DBJ\git\hos\tools\qemu\qemu-img create -f qcow2 C:\Users\DBJ\git\hos\tools\qemu\qemu_img\create\qcow2_"&amp;A76&amp;B76&amp;".qcow2 "&amp;A76</f>
         <v>C:\Users\DBJ\git\hos\tools\qemu\qemu-img create -f qcow2 C:\Users\DBJ\git\hos\tools\qemu\qemu_img\create\qcow2_32255K.qcow2 32255</v>
       </c>
-      <c r="F76" s="36" t="str">
+      <c r="F76" s="35" t="str">
         <f t="shared" ref="F76" si="60">"C:\Users\DBJ\git\hos\tools\qemu\run.bat qcow2_"&amp;A76&amp;B76&amp;".qcow2 fdisk create"</f>
         <v>C:\Users\DBJ\git\hos\tools\qemu\run.bat qcow2_32255K.qcow2 fdisk create</v>
       </c>
-      <c r="G76" s="36" t="str">
+      <c r="G76" s="35" t="str">
         <f t="shared" ref="G76" si="61">"C:\Users\DBJ\git\hos\tools\qemu\run.bat qcow2_"&amp;A76&amp;B76&amp;".qcow2 format fdisk"</f>
         <v>C:\Users\DBJ\git\hos\tools\qemu\run.bat qcow2_32255K.qcow2 format fdisk</v>
       </c>
@@ -9428,7 +9437,7 @@
         <f t="shared" ref="I76" si="62">A76*1024</f>
         <v>33029120</v>
       </c>
-      <c r="J76" s="35">
+      <c r="J76" s="34">
         <f t="shared" ref="J76" si="63">I76/(1008*512)</f>
         <v>63.998015873015873</v>
       </c>
@@ -9452,7 +9461,7 @@
         <f t="shared" ref="O76" si="68">N76/2</f>
         <v>31720</v>
       </c>
-      <c r="P76" s="35">
+      <c r="P76" s="34">
         <f t="shared" ref="P76" si="69">O76/1024</f>
         <v>30.9765625</v>
       </c>
@@ -9468,77 +9477,77 @@
       <c r="T76" s="1"/>
       <c r="U76" s="1"/>
       <c r="V76" s="1"/>
-      <c r="W76" s="35"/>
+      <c r="W76" s="34"/>
       <c r="Y76" s="1"/>
     </row>
     <row r="77" spans="1:25" ht="14.25" thickBot="1">
-      <c r="A77" s="38">
+      <c r="A77" s="37">
         <v>524663</v>
       </c>
-      <c r="B77" s="39" t="s">
+      <c r="B77" s="38" t="s">
         <v>237</v>
       </c>
-      <c r="C77" s="40">
+      <c r="C77" s="39">
         <f t="shared" si="30"/>
         <v>512.3662109375</v>
       </c>
-      <c r="D77" s="38" t="s">
+      <c r="D77" s="37" t="s">
         <v>238</v>
       </c>
-      <c r="E77" s="41" t="str">
+      <c r="E77" s="40" t="str">
         <f t="shared" si="31"/>
         <v>C:\Users\DBJ\git\hos\tools\qemu\qemu-img create -f qcow2 C:\Users\DBJ\git\hos\tools\qemu\qemu_img\create\qcow2_524663K.qcow2 524663</v>
       </c>
-      <c r="F77" s="41" t="str">
+      <c r="F77" s="40" t="str">
         <f t="shared" si="32"/>
         <v>C:\Users\DBJ\git\hos\tools\qemu\run.bat qcow2_524663K.qcow2 fdisk create</v>
       </c>
-      <c r="G77" s="41" t="str">
+      <c r="G77" s="40" t="str">
         <f t="shared" si="33"/>
         <v>C:\Users\DBJ\git\hos\tools\qemu\run.bat qcow2_524663K.qcow2 format fdisk</v>
       </c>
-      <c r="H77" s="39" t="s">
+      <c r="H77" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="I77" s="39">
+      <c r="I77" s="38">
         <f t="shared" si="34"/>
         <v>537254912</v>
       </c>
-      <c r="J77" s="40">
+      <c r="J77" s="39">
         <f t="shared" si="35"/>
         <v>1040.9980158730159</v>
       </c>
-      <c r="K77" s="38">
+      <c r="K77" s="37">
         <f t="shared" si="41"/>
         <v>1040</v>
       </c>
-      <c r="L77" s="38">
+      <c r="L77" s="37">
         <f t="shared" si="42"/>
         <v>1048320</v>
       </c>
-      <c r="M77" s="38">
+      <c r="M77" s="37">
         <f t="shared" si="43"/>
         <v>1048319</v>
       </c>
-      <c r="N77" s="38">
+      <c r="N77" s="37">
         <f t="shared" si="44"/>
         <v>1048256</v>
       </c>
-      <c r="O77" s="38">
+      <c r="O77" s="37">
         <f t="shared" si="45"/>
         <v>524128</v>
       </c>
-      <c r="P77" s="40">
+      <c r="P77" s="39">
         <f t="shared" si="40"/>
         <v>511.84375</v>
       </c>
-      <c r="Q77" s="39" t="s">
+      <c r="Q77" s="38" t="s">
         <v>246</v>
       </c>
-      <c r="R77" s="39" t="s">
+      <c r="R77" s="38" t="s">
         <v>249</v>
       </c>
-      <c r="S77" s="39" t="s">
+      <c r="S77" s="38" t="s">
         <v>244</v>
       </c>
       <c r="T77" s="1">
@@ -9552,7 +9561,7 @@
         <f t="shared" ref="V77:W77" si="70">U77/1024</f>
         <v>524128</v>
       </c>
-      <c r="W77" s="35">
+      <c r="W77" s="34">
         <f t="shared" si="70"/>
         <v>511.84375</v>
       </c>
@@ -9566,73 +9575,73 @@
       </c>
     </row>
     <row r="78" spans="1:25" ht="14.25" thickTop="1">
-      <c r="A78" s="42">
+      <c r="A78" s="41">
         <v>524664</v>
       </c>
-      <c r="B78" s="43" t="s">
+      <c r="B78" s="42" t="s">
         <v>237</v>
       </c>
-      <c r="C78" s="44">
+      <c r="C78" s="43">
         <f t="shared" si="30"/>
         <v>512.3671875</v>
       </c>
-      <c r="D78" s="42" t="s">
+      <c r="D78" s="41" t="s">
         <v>238</v>
       </c>
-      <c r="E78" s="45" t="str">
+      <c r="E78" s="44" t="str">
         <f t="shared" si="31"/>
         <v>C:\Users\DBJ\git\hos\tools\qemu\qemu-img create -f qcow2 C:\Users\DBJ\git\hos\tools\qemu\qemu_img\create\qcow2_524664K.qcow2 524664</v>
       </c>
-      <c r="F78" s="45" t="str">
+      <c r="F78" s="44" t="str">
         <f t="shared" si="32"/>
         <v>C:\Users\DBJ\git\hos\tools\qemu\run.bat qcow2_524664K.qcow2 fdisk create</v>
       </c>
-      <c r="G78" s="45" t="str">
+      <c r="G78" s="44" t="str">
         <f t="shared" si="33"/>
         <v>C:\Users\DBJ\git\hos\tools\qemu\run.bat qcow2_524664K.qcow2 format fdisk</v>
       </c>
-      <c r="H78" s="43" t="s">
+      <c r="H78" s="42" t="s">
         <v>241</v>
       </c>
-      <c r="I78" s="43">
+      <c r="I78" s="42">
         <f t="shared" si="34"/>
         <v>537255936</v>
       </c>
-      <c r="J78" s="44">
+      <c r="J78" s="43">
         <f t="shared" si="35"/>
         <v>1041</v>
       </c>
-      <c r="K78" s="42">
+      <c r="K78" s="41">
         <f t="shared" si="41"/>
         <v>1041</v>
       </c>
-      <c r="L78" s="42">
+      <c r="L78" s="41">
         <f t="shared" si="42"/>
         <v>1049328</v>
       </c>
-      <c r="M78" s="42">
+      <c r="M78" s="41">
         <f t="shared" si="43"/>
         <v>1049327</v>
       </c>
-      <c r="N78" s="42">
+      <c r="N78" s="41">
         <f t="shared" si="44"/>
         <v>1049264</v>
       </c>
-      <c r="O78" s="42">
+      <c r="O78" s="41">
         <f t="shared" si="45"/>
         <v>524632</v>
       </c>
-      <c r="P78" s="44">
+      <c r="P78" s="43">
         <f t="shared" si="40"/>
         <v>512.3359375</v>
       </c>
-      <c r="Q78" s="43" t="s">
+      <c r="Q78" s="42" t="s">
         <v>251</v>
       </c>
-      <c r="R78" s="43" t="s">
+      <c r="R78" s="42" t="s">
         <v>250</v>
       </c>
-      <c r="S78" s="43" t="s">
+      <c r="S78" s="42" t="s">
         <v>244</v>
       </c>
       <c r="T78" s="1">
@@ -9646,7 +9655,7 @@
         <f t="shared" ref="V78:W78" si="71">U78/1024</f>
         <v>524632</v>
       </c>
-      <c r="W78" s="35">
+      <c r="W78" s="34">
         <f t="shared" si="71"/>
         <v>512.3359375</v>
       </c>
@@ -9660,13 +9669,13 @@
       </c>
     </row>
     <row r="79" spans="1:25" s="1" customFormat="1">
-      <c r="C79" s="35"/>
-      <c r="E79" s="36"/>
-      <c r="F79" s="36"/>
-      <c r="G79" s="36"/>
+      <c r="C79" s="34"/>
+      <c r="E79" s="35"/>
+      <c r="F79" s="35"/>
+      <c r="G79" s="35"/>
       <c r="I79" s="4"/>
-      <c r="J79" s="35"/>
-      <c r="P79" s="35"/>
+      <c r="J79" s="34"/>
+      <c r="P79" s="34"/>
     </row>
     <row r="80" spans="1:25" s="1" customFormat="1">
       <c r="A80" s="1">
@@ -9676,22 +9685,22 @@
       <c r="B80" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="C80" s="35">
+      <c r="C80" s="34">
         <f t="shared" si="30"/>
         <v>2047.5</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E80" s="36" t="str">
+      <c r="E80" s="35" t="str">
         <f t="shared" ref="E80" si="72">"C:\Users\DBJ\git\hos\tools\qemu\qemu-img create -f qcow2 C:\Users\DBJ\git\hos\tools\qemu\qemu_img\create\qcow2_"&amp;A80&amp;B80&amp;".qcow2 "&amp;A80</f>
         <v>C:\Users\DBJ\git\hos\tools\qemu\qemu-img create -f qcow2 C:\Users\DBJ\git\hos\tools\qemu\qemu_img\create\qcow2_2096640K.qcow2 2096640</v>
       </c>
-      <c r="F80" s="36" t="str">
+      <c r="F80" s="35" t="str">
         <f t="shared" ref="F80" si="73">"C:\Users\DBJ\git\hos\tools\qemu\run.bat qcow2_"&amp;A80&amp;B80&amp;".qcow2 fdisk create"</f>
         <v>C:\Users\DBJ\git\hos\tools\qemu\run.bat qcow2_2096640K.qcow2 fdisk create</v>
       </c>
-      <c r="G80" s="36" t="str">
+      <c r="G80" s="35" t="str">
         <f t="shared" ref="G80" si="74">"C:\Users\DBJ\git\hos\tools\qemu\run.bat qcow2_"&amp;A80&amp;B80&amp;".qcow2 format fdisk"</f>
         <v>C:\Users\DBJ\git\hos\tools\qemu\run.bat qcow2_2096640K.qcow2 format fdisk</v>
       </c>
@@ -9702,7 +9711,7 @@
         <f t="shared" ref="I80" si="75">A80*1024</f>
         <v>2146959360</v>
       </c>
-      <c r="J80" s="35">
+      <c r="J80" s="34">
         <f t="shared" ref="J80" si="76">I80/(1008*512)</f>
         <v>4160</v>
       </c>
@@ -9726,7 +9735,7 @@
         <f t="shared" ref="O80" si="81">N80/2</f>
         <v>2096608</v>
       </c>
-      <c r="P80" s="35">
+      <c r="P80" s="34">
         <f t="shared" ref="P80" si="82">O80/1024</f>
         <v>2047.46875</v>
       </c>
@@ -9744,31 +9753,31 @@
       </c>
     </row>
     <row r="81" spans="3:16" s="1" customFormat="1">
-      <c r="C81" s="35"/>
-      <c r="E81" s="36"/>
-      <c r="F81" s="36"/>
-      <c r="G81" s="36"/>
+      <c r="C81" s="34"/>
+      <c r="E81" s="35"/>
+      <c r="F81" s="35"/>
+      <c r="G81" s="35"/>
       <c r="I81" s="4"/>
-      <c r="J81" s="35"/>
-      <c r="P81" s="35"/>
+      <c r="J81" s="34"/>
+      <c r="P81" s="34"/>
     </row>
     <row r="82" spans="3:16" s="1" customFormat="1">
-      <c r="C82" s="35"/>
-      <c r="E82" s="36"/>
-      <c r="F82" s="36"/>
-      <c r="G82" s="36"/>
+      <c r="C82" s="34"/>
+      <c r="E82" s="35"/>
+      <c r="F82" s="35"/>
+      <c r="G82" s="35"/>
       <c r="I82" s="4"/>
-      <c r="J82" s="35"/>
-      <c r="P82" s="35"/>
+      <c r="J82" s="34"/>
+      <c r="P82" s="34"/>
     </row>
     <row r="83" spans="3:16" s="1" customFormat="1">
-      <c r="C83" s="35"/>
-      <c r="E83" s="36"/>
-      <c r="F83" s="36"/>
-      <c r="G83" s="36"/>
+      <c r="C83" s="34"/>
+      <c r="E83" s="35"/>
+      <c r="F83" s="35"/>
+      <c r="G83" s="35"/>
       <c r="I83" s="4"/>
-      <c r="J83" s="35"/>
-      <c r="P83" s="35"/>
+      <c r="J83" s="34"/>
+      <c r="P83" s="34"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -9794,29 +9803,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13">
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C1" s="9">
+      <c r="C1" s="8">
         <v>224150</v>
       </c>
-      <c r="D1" s="9">
+      <c r="D1" s="8">
         <f>C1/4096</f>
         <v>54.72412109375</v>
       </c>
-      <c r="E1" s="9">
+      <c r="E1" s="8">
         <f>ROUNDUP(D1,0)</f>
         <v>55</v>
       </c>
-      <c r="F1" s="9">
+      <c r="F1" s="8">
         <f>E1/2</f>
         <v>27.5</v>
       </c>
-      <c r="G1" s="9">
+      <c r="G1" s="8">
         <f>ROUNDUP(F1,0)</f>
         <v>28</v>
       </c>
-      <c r="H1" s="9">
+      <c r="H1" s="8">
         <f>G1*3</f>
         <v>84</v>
       </c>
@@ -9845,43 +9854,43 @@
       <c r="C2">
         <v>9</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="8">
         <f>C2/4096</f>
         <v>2.197265625E-3</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="8">
         <f>ROUNDUP(D2,0)</f>
         <v>1</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="8">
         <f>E2/2</f>
         <v>0.5</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="8">
         <f>ROUNDUP(F2,0)</f>
         <v>1</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="8">
         <f>G2*3</f>
         <v>3</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="8">
         <f t="shared" ref="I2:I4" si="0">INT(F2)</f>
         <v>0</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="8">
         <f t="shared" ref="J2:J4" si="1">I2*3</f>
         <v>0</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="8">
         <f t="shared" ref="K2:K4" si="2">ROUNDUP((F2-I2)*3,0)</f>
         <v>2</v>
       </c>
-      <c r="L2" s="9">
+      <c r="L2" s="8">
         <f t="shared" ref="L2:L4" si="3">J2+K2</f>
         <v>2</v>
       </c>
-      <c r="M2" s="9" t="str">
+      <c r="M2" s="8" t="str">
         <f t="shared" ref="M2:M4" si="4">DEC2HEX(C2)</f>
         <v>9</v>
       </c>
@@ -9890,43 +9899,43 @@
       <c r="C3">
         <v>94292</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <f t="shared" ref="D3:D4" si="5">C3/4096</f>
         <v>23.0205078125</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <f t="shared" ref="E3:E4" si="6">ROUNDUP(D3,0)</f>
         <v>24</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <f t="shared" ref="F3:F4" si="7">E3/2</f>
         <v>12</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="8">
         <f t="shared" ref="G3:G4" si="8">ROUNDUP(F3,0)</f>
         <v>12</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="8">
         <f t="shared" ref="H3:H4" si="9">G3*3</f>
         <v>36</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="8">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="8">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="8">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="M3" s="9" t="str">
+      <c r="M3" s="8" t="str">
         <f t="shared" si="4"/>
         <v>17054</v>
       </c>
@@ -9935,43 +9944,43 @@
       <c r="C4">
         <v>68871</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <f t="shared" si="5"/>
         <v>16.814208984375</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8">
         <f t="shared" si="6"/>
         <v>17</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <f t="shared" si="7"/>
         <v>8.5</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="8">
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="8">
         <f t="shared" si="9"/>
         <v>27</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="8">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="8">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="8">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="8">
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
-      <c r="M4" s="9" t="str">
+      <c r="M4" s="8" t="str">
         <f t="shared" si="4"/>
         <v>10D07</v>
       </c>
@@ -9983,91 +9992,91 @@
       </c>
     </row>
     <row r="6" spans="2:13" ht="15.75">
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="7" spans="2:13" s="4" customFormat="1">
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="10" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="8" spans="2:13" s="4" customFormat="1" ht="15.75">
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="9" spans="2:13" s="4" customFormat="1">
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="9" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="10" spans="2:13" s="4" customFormat="1">
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="9" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="11" spans="2:13" s="4" customFormat="1">
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="9" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="12" spans="2:13">
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="9" t="s">
         <v>134</v>
       </c>
     </row>
@@ -10077,12 +10086,12 @@
       </c>
     </row>
     <row r="18" spans="3:6">
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="21" spans="3:6">
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="8" t="s">
         <v>228</v>
       </c>
       <c r="D21">
@@ -10098,7 +10107,7 @@
       </c>
     </row>
     <row r="22" spans="3:6">
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="8" t="s">
         <v>229</v>
       </c>
       <c r="D22">
@@ -10107,7 +10116,7 @@
       </c>
     </row>
     <row r="23" spans="3:6">
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="8" t="s">
         <v>230</v>
       </c>
       <c r="D23">
@@ -10132,1248 +10141,1248 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="13"/>
-    <col min="2" max="2" width="18.25" style="13" customWidth="1"/>
-    <col min="3" max="3" width="11.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="13" customWidth="1"/>
-    <col min="6" max="6" width="11.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9" style="13"/>
-    <col min="9" max="11" width="10.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="11.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="12.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="13"/>
+    <col min="1" max="1" width="9" style="12"/>
+    <col min="2" max="2" width="18.25" style="12" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="11.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="12"/>
+    <col min="9" max="11" width="10.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="11.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="12.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="I1" s="13">
+      <c r="I1" s="12">
         <v>0</v>
       </c>
-      <c r="J1" s="13">
+      <c r="J1" s="12">
         <v>1</v>
       </c>
-      <c r="K1" s="13">
+      <c r="K1" s="12">
         <v>2</v>
       </c>
-      <c r="L1" s="13">
+      <c r="L1" s="12">
         <v>3</v>
       </c>
-      <c r="M1" s="13">
+      <c r="M1" s="12">
         <v>4</v>
       </c>
-      <c r="N1" s="13">
+      <c r="N1" s="12">
         <v>5</v>
       </c>
-      <c r="O1" s="13">
+      <c r="O1" s="12">
         <v>6</v>
       </c>
-      <c r="P1" s="13">
+      <c r="P1" s="12">
         <v>7</v>
       </c>
-      <c r="Q1" s="26">
+      <c r="Q1" s="25">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:17">
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="I2" s="15">
+      <c r="I2" s="14">
         <f t="shared" ref="I2:Q2" si="0">I3*512/1024</f>
         <v>0.5</v>
       </c>
-      <c r="J2" s="15">
+      <c r="J2" s="14">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K2" s="15">
+      <c r="K2" s="14">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="L2" s="15">
+      <c r="L2" s="14">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="M2" s="15">
+      <c r="M2" s="14">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="N2" s="15">
+      <c r="N2" s="14">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="O2" s="15">
+      <c r="O2" s="14">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="P2" s="15">
+      <c r="P2" s="14">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="Q2" s="26">
+      <c r="Q2" s="25">
         <f t="shared" si="0"/>
         <v>127.5</v>
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="D3" s="13">
+      <c r="D3" s="12">
         <v>1</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="I3" s="15">
+      <c r="I3" s="14">
         <v>1</v>
       </c>
-      <c r="J3" s="15">
+      <c r="J3" s="14">
         <f t="shared" ref="J3:P3" si="1">I3*2</f>
         <v>2</v>
       </c>
-      <c r="K3" s="15">
+      <c r="K3" s="14">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="L3" s="15">
+      <c r="L3" s="14">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="M3" s="15">
+      <c r="M3" s="14">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="N3" s="15">
+      <c r="N3" s="14">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="O3" s="15">
+      <c r="O3" s="14">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="P3" s="32">
+      <c r="P3" s="31">
         <f t="shared" si="1"/>
         <v>128</v>
       </c>
-      <c r="Q3" s="26">
+      <c r="Q3" s="25">
         <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="12">
         <f>POWER(2,12)</f>
         <v>4096</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="12">
         <v>0</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="14">
         <f>HEX2DEC("FEF")-1</f>
         <v>4078</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="12">
         <v>1.44</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="12">
         <v>16</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="12">
         <f t="shared" ref="I4:Q4" si="2">$F$4*I2</f>
         <v>2039</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="12">
         <f t="shared" si="2"/>
         <v>4078</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="12">
         <f t="shared" si="2"/>
         <v>8156</v>
       </c>
-      <c r="L4" s="13">
+      <c r="L4" s="12">
         <f t="shared" si="2"/>
         <v>16312</v>
       </c>
-      <c r="M4" s="13">
+      <c r="M4" s="12">
         <f t="shared" si="2"/>
         <v>32624</v>
       </c>
-      <c r="N4" s="13">
+      <c r="N4" s="12">
         <f t="shared" si="2"/>
         <v>65248</v>
       </c>
-      <c r="O4" s="13">
+      <c r="O4" s="12">
         <f t="shared" si="2"/>
         <v>130496</v>
       </c>
-      <c r="P4" s="13">
+      <c r="P4" s="12">
         <f t="shared" si="2"/>
         <v>260992</v>
       </c>
-      <c r="Q4" s="26">
+      <c r="Q4" s="25">
         <f t="shared" si="2"/>
         <v>519945</v>
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="12">
         <f>POWER(2,16)</f>
         <v>65536</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="14">
         <f>C5-17</f>
         <v>65519</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="12">
         <v>17</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="12">
         <v>512</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="12">
         <f>$F$5*I2</f>
         <v>32759.5</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="12">
         <f t="shared" ref="J5:P5" si="3">$F$5*J2</f>
         <v>65519</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="12">
         <f t="shared" si="3"/>
         <v>131038</v>
       </c>
-      <c r="L5" s="13">
+      <c r="L5" s="12">
         <f t="shared" si="3"/>
         <v>262076</v>
       </c>
-      <c r="M5" s="13">
+      <c r="M5" s="12">
         <f t="shared" si="3"/>
         <v>524152</v>
       </c>
-      <c r="N5" s="13">
+      <c r="N5" s="12">
         <f t="shared" si="3"/>
         <v>1048304</v>
       </c>
-      <c r="O5" s="13">
+      <c r="O5" s="12">
         <f t="shared" si="3"/>
         <v>2096608</v>
       </c>
-      <c r="P5" s="13">
+      <c r="P5" s="12">
         <f t="shared" si="3"/>
         <v>4193216</v>
       </c>
-      <c r="Q5" s="26">
+      <c r="Q5" s="25">
         <f t="shared" ref="Q5" si="4">$F$5*Q2</f>
         <v>8353672.5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="12">
         <f>POWER(2,28)</f>
         <v>268435456</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="12">
         <f>C6-17</f>
         <v>268435439</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="12">
         <v>513</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="12">
         <f>$F$6*I2</f>
         <v>134217719.5</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="12">
         <f t="shared" ref="J6:P6" si="5">$F$6*J2</f>
         <v>268435439</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="12">
         <f t="shared" si="5"/>
         <v>536870878</v>
       </c>
-      <c r="L6" s="13">
+      <c r="L6" s="12">
         <f t="shared" si="5"/>
         <v>1073741756</v>
       </c>
-      <c r="M6" s="13">
+      <c r="M6" s="12">
         <f t="shared" si="5"/>
         <v>2147483512</v>
       </c>
-      <c r="N6" s="13">
+      <c r="N6" s="12">
         <f t="shared" si="5"/>
         <v>4294967024</v>
       </c>
-      <c r="O6" s="13">
+      <c r="O6" s="12">
         <f t="shared" si="5"/>
         <v>8589934048</v>
       </c>
-      <c r="P6" s="13">
+      <c r="P6" s="12">
         <f t="shared" si="5"/>
         <v>17179868096</v>
       </c>
-      <c r="Q6" s="26">
+      <c r="Q6" s="25">
         <f t="shared" ref="Q6" si="6">$F$6*Q2</f>
         <v>34225518472.5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="I7" s="30">
+      <c r="I7" s="29">
         <f>I4/1024</f>
         <v>1.9912109375</v>
       </c>
-      <c r="J7" s="30">
+      <c r="J7" s="29">
         <f t="shared" ref="J7:P7" si="7">J4/1024</f>
         <v>3.982421875</v>
       </c>
-      <c r="K7" s="30">
+      <c r="K7" s="29">
         <f t="shared" si="7"/>
         <v>7.96484375</v>
       </c>
-      <c r="L7" s="30">
+      <c r="L7" s="29">
         <f t="shared" si="7"/>
         <v>15.9296875</v>
       </c>
-      <c r="M7" s="31">
+      <c r="M7" s="30">
         <f t="shared" si="7"/>
         <v>31.859375</v>
       </c>
-      <c r="N7" s="31">
+      <c r="N7" s="30">
         <f t="shared" si="7"/>
         <v>63.71875</v>
       </c>
-      <c r="O7" s="31">
+      <c r="O7" s="30">
         <f t="shared" si="7"/>
         <v>127.4375</v>
       </c>
-      <c r="P7" s="31">
+      <c r="P7" s="30">
         <f t="shared" si="7"/>
         <v>254.875</v>
       </c>
-      <c r="Q7" s="27">
+      <c r="Q7" s="26">
         <f t="shared" ref="Q7" si="8">Q4/1024</f>
         <v>507.7587890625</v>
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="I8" s="30">
+      <c r="I8" s="29">
         <f>I5/1024</f>
         <v>31.99169921875</v>
       </c>
-      <c r="J8" s="30">
+      <c r="J8" s="29">
         <f t="shared" ref="J8:P8" si="9">J5/1024</f>
         <v>63.9833984375</v>
       </c>
-      <c r="K8" s="30">
+      <c r="K8" s="29">
         <f t="shared" si="9"/>
         <v>127.966796875</v>
       </c>
-      <c r="L8" s="30">
+      <c r="L8" s="29">
         <f t="shared" si="9"/>
         <v>255.93359375</v>
       </c>
-      <c r="M8" s="30">
+      <c r="M8" s="29">
         <f t="shared" si="9"/>
         <v>511.8671875</v>
       </c>
-      <c r="N8" s="31">
+      <c r="N8" s="30">
         <f t="shared" si="9"/>
         <v>1023.734375</v>
       </c>
-      <c r="O8" s="31">
+      <c r="O8" s="30">
         <f t="shared" si="9"/>
         <v>2047.46875</v>
       </c>
-      <c r="P8" s="31">
+      <c r="P8" s="30">
         <f t="shared" si="9"/>
         <v>4094.9375</v>
       </c>
-      <c r="Q8" s="27">
+      <c r="Q8" s="26">
         <f t="shared" ref="Q8" si="10">Q5/1024</f>
         <v>8157.88330078125</v>
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="I9" s="24">
+      <c r="I9" s="23">
         <f>I6/1024</f>
         <v>131071.99169921875</v>
       </c>
-      <c r="J9" s="24">
+      <c r="J9" s="23">
         <f t="shared" ref="J9:P9" si="11">J6/1024</f>
         <v>262143.9833984375</v>
       </c>
-      <c r="K9" s="24">
+      <c r="K9" s="23">
         <f t="shared" si="11"/>
         <v>524287.966796875</v>
       </c>
-      <c r="L9" s="24">
+      <c r="L9" s="23">
         <f t="shared" si="11"/>
         <v>1048575.93359375</v>
       </c>
-      <c r="M9" s="24">
+      <c r="M9" s="23">
         <f t="shared" si="11"/>
         <v>2097151.8671875</v>
       </c>
-      <c r="N9" s="24">
+      <c r="N9" s="23">
         <f t="shared" si="11"/>
         <v>4194303.734375</v>
       </c>
-      <c r="O9" s="24">
+      <c r="O9" s="23">
         <f t="shared" si="11"/>
         <v>8388607.46875</v>
       </c>
-      <c r="P9" s="24">
+      <c r="P9" s="23">
         <f t="shared" si="11"/>
         <v>16777214.9375</v>
       </c>
-      <c r="Q9" s="27">
+      <c r="Q9" s="26">
         <f t="shared" ref="Q9" si="12">Q6/1024</f>
         <v>33423357.883300781</v>
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="I10" s="28" t="s">
+      <c r="I10" s="27" t="s">
         <v>222</v>
       </c>
-      <c r="L10" s="29" t="s">
+      <c r="L10" s="28" t="s">
         <v>223</v>
       </c>
-      <c r="M10" s="13" t="s">
+      <c r="M10" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="N10" s="13" t="s">
+      <c r="N10" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="O10" s="13" t="s">
+      <c r="O10" s="12" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="K11" s="28" t="s">
+      <c r="K11" s="27" t="s">
         <v>224</v>
       </c>
-      <c r="L11" s="25" t="s">
+      <c r="L11" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="M11" s="25" t="s">
+      <c r="M11" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="N11" s="13" t="s">
+      <c r="N11" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="O11" s="28" t="s">
+      <c r="O11" s="27" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="M12" s="28" t="s">
+      <c r="M12" s="27" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="21">
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
     </row>
     <row r="21" spans="2:5" ht="16.5">
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
     </row>
     <row r="22" spans="2:5" ht="16.5">
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="E22" s="17" t="s">
+      <c r="E22" s="16" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="16.5">
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="E23" s="17" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="16.5">
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="18" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="16.5">
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E25" s="17" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="16.5">
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="E26" s="18" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="16.5">
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="E27" s="18" t="s">
+      <c r="E27" s="17" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="16.5">
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="E28" s="19" t="s">
+      <c r="E28" s="18" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="16.5">
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="D29" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="E29" s="18" t="s">
+      <c r="E29" s="17" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="30" spans="2:5" ht="16.5">
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="D30" s="19" t="s">
+      <c r="D30" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="E30" s="19" t="s">
+      <c r="E30" s="18" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="16.5">
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="D31" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="E31" s="18" t="s">
+      <c r="E31" s="17" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="16.5">
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C32" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="D32" s="19" t="s">
+      <c r="D32" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="E32" s="19" t="s">
+      <c r="E32" s="18" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="33" spans="2:5">
-      <c r="B33" s="20"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
     </row>
     <row r="34" spans="2:5" ht="16.5">
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
     </row>
     <row r="35" spans="2:5" ht="21">
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
     </row>
     <row r="36" spans="2:5" ht="16.5">
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
     </row>
     <row r="37" spans="2:5" ht="16.5">
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="C37" s="17" t="s">
+      <c r="C37" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="D37" s="17" t="s">
+      <c r="D37" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="E37" s="17" t="s">
+      <c r="E37" s="16" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="38" spans="2:5" ht="16.5">
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C38" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="D38" s="18" t="s">
+      <c r="D38" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="E38" s="18" t="s">
+      <c r="E38" s="17" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="39" spans="2:5" ht="16.5">
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="C39" s="23" t="s">
+      <c r="C39" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="D39" s="23" t="s">
+      <c r="D39" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="E39" s="23" t="s">
+      <c r="E39" s="22" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="40" spans="2:5" ht="16.5">
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="C40" s="23" t="s">
+      <c r="C40" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="D40" s="23" t="s">
+      <c r="D40" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="E40" s="23" t="s">
+      <c r="E40" s="22" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="41" spans="2:5" ht="16.5">
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="C41" s="23" t="s">
+      <c r="C41" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="D41" s="23" t="s">
+      <c r="D41" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="E41" s="23" t="s">
+      <c r="E41" s="22" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="42" spans="2:5" ht="16.5">
-      <c r="B42" s="23" t="s">
+      <c r="B42" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="C42" s="23" t="s">
+      <c r="C42" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="D42" s="23" t="s">
+      <c r="D42" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="E42" s="23" t="s">
+      <c r="E42" s="22" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="43" spans="2:5" ht="16.5">
-      <c r="B43" s="23" t="s">
+      <c r="B43" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="C43" s="23" t="s">
+      <c r="C43" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="D43" s="23" t="s">
+      <c r="D43" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="E43" s="23" t="s">
+      <c r="E43" s="22" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="44" spans="2:5" ht="16.5">
-      <c r="B44" s="23" t="s">
+      <c r="B44" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="C44" s="23" t="s">
+      <c r="C44" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="D44" s="23" t="s">
+      <c r="D44" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="E44" s="23" t="s">
+      <c r="E44" s="22" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="45" spans="2:5" ht="16.5">
-      <c r="B45" s="23" t="s">
+      <c r="B45" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="C45" s="23" t="s">
+      <c r="C45" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="D45" s="23" t="s">
+      <c r="D45" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="E45" s="23" t="s">
+      <c r="E45" s="22" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="46" spans="2:5" ht="16.5">
-      <c r="B46" s="23" t="s">
+      <c r="B46" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="C46" s="23" t="s">
+      <c r="C46" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="D46" s="23" t="s">
+      <c r="D46" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="E46" s="23" t="s">
+      <c r="E46" s="22" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="47" spans="2:5" ht="16.5">
-      <c r="B47" s="19" t="s">
+      <c r="B47" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="C47" s="19" t="s">
+      <c r="C47" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="D47" s="19" t="s">
+      <c r="D47" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="E47" s="19" t="s">
+      <c r="E47" s="18" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="48" spans="2:5" ht="16.5">
-      <c r="B48" s="18" t="s">
+      <c r="B48" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="C48" s="18" t="s">
+      <c r="C48" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="D48" s="18" t="s">
+      <c r="D48" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="E48" s="18" t="s">
+      <c r="E48" s="17" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="49" spans="2:5" ht="16.5">
-      <c r="B49" s="19" t="s">
+      <c r="B49" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="C49" s="19" t="s">
+      <c r="C49" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="D49" s="19" t="s">
+      <c r="D49" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="E49" s="19" t="s">
+      <c r="E49" s="18" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="50" spans="2:5" ht="16.5">
-      <c r="B50" s="21" t="s">
+      <c r="B50" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
     </row>
     <row r="51" spans="2:5" ht="21">
-      <c r="B51" s="14" t="s">
+      <c r="B51" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
     </row>
     <row r="52" spans="2:5" ht="16.5">
-      <c r="B52" s="16" t="s">
+      <c r="B52" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
     </row>
     <row r="53" spans="2:5" ht="16.5">
-      <c r="B53" s="17" t="s">
+      <c r="B53" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="C53" s="17" t="s">
+      <c r="C53" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="D53" s="17" t="s">
+      <c r="D53" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="E53" s="17" t="s">
+      <c r="E53" s="16" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="54" spans="2:5" ht="16.5">
-      <c r="B54" s="18" t="s">
+      <c r="B54" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="C54" s="18" t="s">
+      <c r="C54" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="D54" s="18" t="s">
+      <c r="D54" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="E54" s="18" t="s">
+      <c r="E54" s="17" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="55" spans="2:5" ht="16.5">
-      <c r="B55" s="19" t="s">
+      <c r="B55" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="C55" s="19" t="s">
+      <c r="C55" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="D55" s="19" t="s">
+      <c r="D55" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="E55" s="19" t="s">
+      <c r="E55" s="18" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="56" spans="2:5" ht="16.5">
-      <c r="B56" s="23" t="s">
+      <c r="B56" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="C56" s="23" t="s">
+      <c r="C56" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="D56" s="23" t="s">
+      <c r="D56" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="E56" s="23" t="s">
+      <c r="E56" s="22" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="16.5">
-      <c r="B57" s="23" t="s">
+      <c r="B57" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="C57" s="23" t="s">
+      <c r="C57" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="D57" s="23" t="s">
+      <c r="D57" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="E57" s="23" t="s">
+      <c r="E57" s="22" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="16.5">
-      <c r="B58" s="23" t="s">
+      <c r="B58" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="C58" s="23" t="s">
+      <c r="C58" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="D58" s="23" t="s">
+      <c r="D58" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="E58" s="23" t="s">
+      <c r="E58" s="22" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="59" spans="2:5" ht="16.5">
-      <c r="B59" s="23" t="s">
+      <c r="B59" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="C59" s="23" t="s">
+      <c r="C59" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="D59" s="23" t="s">
+      <c r="D59" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="E59" s="23" t="s">
+      <c r="E59" s="22" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="60" spans="2:5" ht="16.5">
-      <c r="B60" s="23" t="s">
+      <c r="B60" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="C60" s="23" t="s">
+      <c r="C60" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="D60" s="23" t="s">
+      <c r="D60" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="E60" s="23" t="s">
+      <c r="E60" s="22" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="61" spans="2:5" ht="16.5">
-      <c r="B61" s="23" t="s">
+      <c r="B61" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="C61" s="23" t="s">
+      <c r="C61" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="D61" s="23" t="s">
+      <c r="D61" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="E61" s="23" t="s">
+      <c r="E61" s="22" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="62" spans="2:5" ht="16.5">
-      <c r="B62" s="18" t="s">
+      <c r="B62" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="C62" s="18" t="s">
+      <c r="C62" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="D62" s="18" t="s">
+      <c r="D62" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="E62" s="18" t="s">
+      <c r="E62" s="17" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="63" spans="2:5" ht="16.5">
-      <c r="B63" s="19" t="s">
+      <c r="B63" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="C63" s="19" t="s">
+      <c r="C63" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="D63" s="19" t="s">
+      <c r="D63" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="E63" s="19" t="s">
+      <c r="E63" s="18" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="64" spans="2:5" ht="21">
-      <c r="B64" s="14" t="s">
+      <c r="B64" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="C64" s="15"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="15"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
     </row>
     <row r="65" spans="2:5" ht="16.5">
-      <c r="B65" s="16" t="s">
+      <c r="B65" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="15"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
     </row>
     <row r="66" spans="2:5" ht="16.5">
-      <c r="B66" s="17" t="s">
+      <c r="B66" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="C66" s="17" t="s">
+      <c r="C66" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="D66" s="15"/>
-      <c r="E66" s="15"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
     </row>
     <row r="67" spans="2:5" ht="16.5">
-      <c r="B67" s="18" t="s">
+      <c r="B67" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="C67" s="18" t="s">
+      <c r="C67" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="D67" s="15"/>
-      <c r="E67" s="15"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
     </row>
     <row r="68" spans="2:5" ht="16.5">
-      <c r="B68" s="19" t="s">
+      <c r="B68" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="C68" s="19" t="s">
+      <c r="C68" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="D68" s="15"/>
-      <c r="E68" s="15"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
     </row>
     <row r="69" spans="2:5" ht="16.5">
-      <c r="B69" s="18" t="s">
+      <c r="B69" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="C69" s="18" t="s">
+      <c r="C69" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="D69" s="15"/>
-      <c r="E69" s="15"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
     </row>
     <row r="70" spans="2:5" ht="16.5">
-      <c r="B70" s="19" t="s">
+      <c r="B70" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="C70" s="19" t="s">
+      <c r="C70" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="D70" s="15"/>
-      <c r="E70" s="15"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
     </row>
     <row r="71" spans="2:5" ht="37.5">
-      <c r="B71" s="22" t="s">
+      <c r="B71" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="C71" s="15"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="15"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
     </row>
     <row r="80" spans="2:5">
-      <c r="C80" s="13" t="s">
+      <c r="C80" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="E80" s="13" t="s">
+      <c r="E80" s="12" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="16.5">
-      <c r="A81" s="13">
+      <c r="A81" s="12">
         <f>64*1024*2</f>
         <v>131072</v>
       </c>
-      <c r="B81" s="23" t="s">
+      <c r="B81" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="C81" s="23" t="s">
+      <c r="C81" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="D81" s="23" t="s">
+      <c r="D81" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="E81" s="23" t="s">
+      <c r="E81" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="F81" s="13">
+      <c r="F81" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="16.5">
-      <c r="B82" s="23" t="s">
+      <c r="B82" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="C82" s="23" t="s">
+      <c r="C82" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="D82" s="23" t="s">
+      <c r="D82" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="E82" s="23" t="s">
+      <c r="E82" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="F82" s="13">
+      <c r="F82" s="12">
         <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="16.5">
-      <c r="B83" s="23" t="s">
+      <c r="B83" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="C83" s="23" t="s">
+      <c r="C83" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="D83" s="23" t="s">
+      <c r="D83" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="E83" s="23" t="s">
+      <c r="E83" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="F83" s="13">
+      <c r="F83" s="12">
         <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="16.5">
-      <c r="B84" s="23" t="s">
+      <c r="B84" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="C84" s="23" t="s">
+      <c r="C84" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="D84" s="23" t="s">
+      <c r="D84" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="E84" s="23" t="s">
+      <c r="E84" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="F84" s="13">
+      <c r="F84" s="12">
         <v>8</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="16.5">
-      <c r="B85" s="23" t="s">
+      <c r="B85" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="C85" s="23" t="s">
+      <c r="C85" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="D85" s="23" t="s">
+      <c r="D85" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="E85" s="23" t="s">
+      <c r="E85" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="F85" s="13">
+      <c r="F85" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="16.5">
-      <c r="B86" s="23" t="s">
+      <c r="B86" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="C86" s="23" t="s">
+      <c r="C86" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="D86" s="23" t="s">
+      <c r="D86" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="E86" s="23" t="s">
+      <c r="E86" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="F86" s="13">
+      <c r="F86" s="12">
         <v>32</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="16.5">
-      <c r="D87" s="23" t="s">
+      <c r="D87" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="E87" s="23" t="s">
+      <c r="E87" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="F87" s="13">
+      <c r="F87" s="12">
         <v>64</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="16.5">
-      <c r="D88" s="23" t="s">
+      <c r="D88" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="E88" s="23" t="s">
+      <c r="E88" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="F88" s="13">
+      <c r="F88" s="12">
         <v>128</v>
       </c>
     </row>
     <row r="93" spans="1:6">
-      <c r="B93" s="13" t="s">
+      <c r="B93" s="12" t="s">
         <v>210</v>
       </c>
     </row>
@@ -11416,7 +11425,7 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>146</v>
       </c>
     </row>
